--- a/biology/Zoologie/Colluricincla/Colluricincla.xlsx
+++ b/biology/Zoologie/Colluricincla/Colluricincla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colluricincla est un genre de passereaux constitué de onze espèces.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,50 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les travaux phylogéniques de Jønsson et al. (2010) montrent que C. sanghirensis n'est pas du tout apparentée aux autres espèces du genre Colluricincla. Le Congrès ornithologique international (COI), dans sa classification de référence (version 3.4, 2013) la déplace dans le genre Coracornis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux phylogéniques de Jønsson et al. (2010) montrent que C. sanghirensis n'est pas du tout apparentée aux autres espèces du genre Colluricincla. Le Congrès ornithologique international (COI), dans sa classification de référence (version 3.4, 2013) la déplace dans le genre Coracornis.
 De même, les travaux de Dumbacher et al. (2008), Norman et al. (2009) et Jønsson et al. (2010), entérinés dans la classification taxinomique (version 3.4, 2013) du Congrès ornithologique international, montrent que C. tenebrosa appartient en réalité au genre Pachycephala. Elle est donc déplacée dans ce genre, et l'espèce Pitohui ombré peut reprendre son nom scientifique le plus ancien, Colluricincla tenebrosa (précédemment Colluricincla umbrina).
-De nombreux remaniements des espèces et sous-espèces ont fait suite aux travaux de Marki et al., publiés en 2018, faisant passer le nombre d'espèce de cinq à onze[2].
-Liste des espèces
-D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international (ordre phylogénique) :
+De nombreux remaniements des espèces et sous-espèces ont fait suite aux travaux de Marki et al., publiés en 2018, faisant passer le nombre d'espèce de cinq à onze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colluricincla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colluricincla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international (ordre phylogénique) :
 Colluricincla boweri – Pitohui de Bower
 Colluricincla tenebrosa – Pitohui ombré
 Colluricincla megarhyncha – Pitohui châtain
